--- a/excel/distribution-goods.xlsx
+++ b/excel/distribution-goods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejwda\Google Drive\01-ejw-data-github\Public\Algorithms\algo-linear-programming\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62CBDDF-4EA2-4E67-94FF-A50FFDF5147B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5082C32-F6C9-41C9-B828-AD172CC2177F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{915ABFA8-4B06-AF4F-A2AE-0D5C19EA983C}"/>
+    <workbookView xWindow="-28920" yWindow="1170" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{915ABFA8-4B06-AF4F-A2AE-0D5C19EA983C}"/>
   </bookViews>
   <sheets>
     <sheet name="Starter_Template" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="35">
   <si>
     <t>Capacity</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>3) Constrain that Demand  Total so it can not exceed Demand Sent</t>
+  </si>
+  <si>
+    <t>(variable costs)</t>
   </si>
 </sst>
 </file>
@@ -309,7 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,7 +1011,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1202,7 +1205,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1313,7 +1316,9 @@
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1581,7 +1586,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="9" t="s">
         <v>26</v>
       </c>
     </row>
